--- a/biology/Médecine/Charles_Fiessinger/Charles_Fiessinger.xlsx
+++ b/biology/Médecine/Charles_Fiessinger/Charles_Fiessinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Fiessinger, né le 5 avril 1857 à Mutzig[1] et mort le 13 mars 1942 à Oyonnax, est un médecin français et anatomiste physiologiste.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Fiessinger, né le 5 avril 1857 à Mutzig et mort le 13 mars 1942 à Oyonnax, est un médecin français et anatomiste physiologiste.
 </t>
         </is>
       </c>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-Il est le fils de Charles Théophile Fiessinger et de Pauline Eugénie Olivier. Il est le père de Noël Fiessinger, de l'académie nationale de médecine.
-Carrière
-Il exerce la médecine à Oyonnax et transmettait à l'académie nationale de médecine des notes sur les maladies infectieuses observées sur la population locale : fièvre typhoïde, scarlatine, grippe, diphtérie, érysipèle[2]. Il est médecin de sociétés de secours mutuel pendant une vingtaine d'années[3]. Il est élu membre correspondant de la société médicale de Lyon le 7 mars 1888. Charles Fiessinger est nommé correspondant de l'académie nationale de médecine le 4 février 1896[3].
-La Commission des Épidémies lui avait décerné sa médaille de bronze, puis sa médaille d'or, dont elle avait fait le rappel, n'ayant plus aucune récompense à lui décerner[2]. Il obtient en 1889 le prix de l'Hygiène de l'Enfance et, en 1896, l'Académie le nomme correspondant national sur un rapport très élogieux d'Empis. Il est également deuxième prix de l'académie des sciences (entre 1890 et 1895) et lauréat de la société de médecine de Toulouse (Prix Goumal en 1888 et médaille d'or en 1884). Il exerce à Paris en 1921.
-Le 5 mai 1921, il est décoré de la Légion d'honneur[3].
-Charles Fiessinger est intervenu dans les débats sur l'hygiène alimentaire, sur la saccharine, sur le mauvais pain, sur le beurre et l'acide borique[4].
-Engagement royaliste
-Charles Fiessinger est également un militant royaliste de l'Action française de même que son fils[5],[6]. Il est aussi le médecin personnel de Charles Maurras et le visite lors de sa détention à la prison de la Santé[7]. Il signe plusieurs articles dans L'Action française et Candide. Le 10 décembre 1932, il participe au banquet corporatif des médecins d'Action française aux côtés de Charles Maurras et Léon Daudet[8].
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Charles Théophile Fiessinger et de Pauline Eugénie Olivier. Il est le père de Noël Fiessinger, de l'académie nationale de médecine.
 </t>
         </is>
       </c>
@@ -547,12 +557,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur[3]</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il exerce la médecine à Oyonnax et transmettait à l'académie nationale de médecine des notes sur les maladies infectieuses observées sur la population locale : fièvre typhoïde, scarlatine, grippe, diphtérie, érysipèle. Il est médecin de sociétés de secours mutuel pendant une vingtaine d'années. Il est élu membre correspondant de la société médicale de Lyon le 7 mars 1888. Charles Fiessinger est nommé correspondant de l'académie nationale de médecine le 4 février 1896.
+La Commission des Épidémies lui avait décerné sa médaille de bronze, puis sa médaille d'or, dont elle avait fait le rappel, n'ayant plus aucune récompense à lui décerner. Il obtient en 1889 le prix de l'Hygiène de l'Enfance et, en 1896, l'Académie le nomme correspondant national sur un rapport très élogieux d'Empis. Il est également deuxième prix de l'académie des sciences (entre 1890 et 1895) et lauréat de la société de médecine de Toulouse (Prix Goumal en 1888 et médaille d'or en 1884). Il exerce à Paris en 1921.
+Le 5 mai 1921, il est décoré de la Légion d'honneur.
+Charles Fiessinger est intervenu dans les débats sur l'hygiène alimentaire, sur la saccharine, sur le mauvais pain, sur le beurre et l'acide borique.
+</t>
         </is>
       </c>
     </row>
@@ -577,10 +597,81 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Engagement royaliste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Fiessinger est également un militant royaliste de l'Action française de même que son fils,. Il est aussi le médecin personnel de Charles Maurras et le visite lors de sa détention à la prison de la Santé. Il signe plusieurs articles dans L'Action française et Candide. Le 10 décembre 1932, il participe au banquet corporatif des médecins d'Action française aux côtés de Charles Maurras et Léon Daudet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Fiessinger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Fiessinger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_Fiessinger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Fiessinger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>De l'élimination des éléments sulfurés par les urines (1879)
 La syphilis infantile, conseils donnés aux sages-femmes chargées des vaccinations (1881)
